--- a/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -119,7 +119,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -132,7 +132,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -236,7 +236,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -262,7 +262,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>amount of water vapour in the air</t>
+          <t>amount of water vapour in the air, at the time of sampling</t>
         </r>
       </text>
     </comment>
@@ -275,7 +275,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -288,7 +288,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>methane (gas) amount or concentration</t>
+          <t>methane (gas) amount or concentration at the time of sampling</t>
         </r>
       </text>
     </comment>
@@ -314,7 +314,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -340,7 +340,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>oxygen (gas) amount or concentration</t>
+          <t>oxygen (gas) amount or concentration at the time of sampling</t>
         </r>
       </text>
     </comment>
@@ -353,7 +353,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -366,7 +366,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pollutant types and, amount or concentrations measured</t>
+          <t>pollutant types and, amount or concentrations measured at the time of sampling; can report multiple pollutants by entering numeric values preceded by name of pollutant</t>
         </r>
       </text>
     </comment>
@@ -405,7 +405,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of substances that remain suspended in the air, and comprise mixtures of organic and inorganic substances (PM10 and PM2.5)</t>
+          <t>concentration of substances that remain suspended in the air, and comprise mixtures of organic and inorganic substances (PM10 and PM2.5); can report multiple PM's by entering numeric values preceded by name of PM</t>
         </r>
       </text>
     </comment>
@@ -535,7 +535,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -548,7 +548,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>
@@ -587,7 +587,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of carbon-based chemicals that easily evaporate at room temperature</t>
+          <t>concentration of carbon-based chemicals that easily evaporate at room temperature; can report multiple volatile organic compounds by entering numeric values preceded by name of compound</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="M15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,435 +185,6 @@
             <family val="2"/>
           </rPr>
           <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>force per unit area exerted against a surface by the weight of air above that surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carbon dioxide (gas) amount or concentration at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carbon monoxide (gas) amount or concentration at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>amount of water vapour in the air, at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>methane (gas) amount or concentration at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>any other measurement performed or parameter collected, that is not listed here</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>oxygenation status of sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>oxygen (gas) amount or concentration at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>pollutant types and, amount or concentrations measured at the time of sampling; can report multiple pollutants by entering numeric values preceded by name of pollutant</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Aerobic or anaerobic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>concentration of substances that remain suspended in the air, and comprise mixtures of organic and inorganic substances (PM10 and PM2.5); can report multiple PM's by entering numeric values preceded by name of PM</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Method or device employed for collecting sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>salinity of sample, i.e. measure of total salt concentration</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>duration for which sample was stored</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>location at which sample was stored, usually name of a specific freezer/room</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature at which sample was stored, e.g. -80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the amount of solar energy that arrives at a specific area of a surface during a specific time interval</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature of the sample at time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ventilation rate of the system in the sampled premises</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ventilation system used in the sampled premises</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>concentration of carbon-based chemicals that easily evaporate at room temperature; can report multiple volatile organic compounds by entering numeric values preceded by name of compound</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>wind direction is the direction from which a wind originates</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>speed of wind measured at the time of sampling</t>
         </r>
       </text>
     </comment>
@@ -622,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMS: metagenome/environmental, air; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -717,105 +288,6 @@
   </si>
   <si>
     <t>lat_lon</t>
-  </si>
-  <si>
-    <t>barometric_press</t>
-  </si>
-  <si>
-    <t>carb_dioxide</t>
-  </si>
-  <si>
-    <t>carb_monoxide</t>
-  </si>
-  <si>
-    <t>chem_administration</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-  <si>
-    <t>humidity</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>methane</t>
-  </si>
-  <si>
-    <t>misc_param</t>
-  </si>
-  <si>
-    <t>organism_count</t>
-  </si>
-  <si>
-    <t>oxy_stat_samp</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>perturbation</t>
-  </si>
-  <si>
-    <t>pollutants</t>
-  </si>
-  <si>
-    <t>ref_biomaterial</t>
-  </si>
-  <si>
-    <t>rel_to_oxygen</t>
-  </si>
-  <si>
-    <t>resp_part_matter</t>
-  </si>
-  <si>
-    <t>samp_collect_device</t>
-  </si>
-  <si>
-    <t>samp_mat_process</t>
-  </si>
-  <si>
-    <t>samp_salinity</t>
-  </si>
-  <si>
-    <t>samp_size</t>
-  </si>
-  <si>
-    <t>samp_store_dur</t>
-  </si>
-  <si>
-    <t>samp_store_loc</t>
-  </si>
-  <si>
-    <t>samp_store_temp</t>
-  </si>
-  <si>
-    <t>samp_vol_we_dna_ext</t>
-  </si>
-  <si>
-    <t>solar_irradiance</t>
-  </si>
-  <si>
-    <t>source_material_id</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>ventilation_rate</t>
-  </si>
-  <si>
-    <t>ventilation_type</t>
-  </si>
-  <si>
-    <t>volatile_org_comp</t>
-  </si>
-  <si>
-    <t>wind_direction</t>
-  </si>
-  <si>
-    <t>wind_speed</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,209 +702,115 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="3" customFormat="1">
+    <row r="3" spans="1:13" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1">
+    <row r="4" spans="1:13" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="5" customFormat="1">
+    <row r="5" spans="1:13" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT13" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
@@ -294,6 +294,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -378,7 +381,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.air.4.0.xlsx
@@ -188,12 +188,441 @@
         </r>
       </text>
     </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>force per unit area exerted against a surface by the weight of air above that surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>carbon dioxide (gas) amount or concentration at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>carbon monoxide (gas) amount or concentration at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>amount of water vapour in the air, at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>methane (gas) amount or concentration at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygen (gas) amount or concentration at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pollutant types and, amount or concentrations measured at the time of sampling; can report multiple pollutants by entering numeric values preceded by name of pollutant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of substances that remain suspended in the air, and comprise mixtures of organic and inorganic substances (PM10 and PM2.5); can report multiple PM's by entering numeric values preceded by name of PM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity of sample, i.e. measure of total salt concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the amount of solar energy that arrives at a specific area of a surface during a specific time interval</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ventilation rate of the system in the sampled premises</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ventilation system used in the sampled premises</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of carbon-based chemicals that easily evaporate at room temperature; can report multiple volatile organic compounds by entering numeric values preceded by name of compound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wind direction is the direction from which a wind originates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>speed of wind measured at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMS: metagenome/environmental, air; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -288,6 +717,105 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>barometric_press</t>
+  </si>
+  <si>
+    <t>carb_dioxide</t>
+  </si>
+  <si>
+    <t>carb_monoxide</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>pollutants</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>resp_part_matter</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_salinity</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>solar_irradiance</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>ventilation_rate</t>
+  </si>
+  <si>
+    <t>ventilation_type</t>
+  </si>
+  <si>
+    <t>volatile_org_comp</t>
+  </si>
+  <si>
+    <t>wind_direction</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
   </si>
 </sst>
 </file>
@@ -705,77 +1233,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:46">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:46">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1">
+    <row r="3" spans="1:46" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1">
+    <row r="4" spans="1:46" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1">
+    <row r="5" spans="1:46" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:46">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:46">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:46">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:46">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:46">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:46">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:46">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:46">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:46">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:46">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -814,6 +1342,105 @@
       </c>
       <c r="M15" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
